--- a/AK/RadarProcess/resource/参数模板.xlsx
+++ b/AK/RadarProcess/resource/参数模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\AK\AK\RadarProcess\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4521E207-606C-4877-B045-E38BE402326F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86325EA7-4498-44E0-A157-235D00F66406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="参数" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>初始经度（°）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,6 +65,54 @@
   </si>
   <si>
     <t>雷达站编号(1-15)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间(ms)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X分量上限(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X分量下限(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y分量上限(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y分量下限(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vx分量上限(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vx分量下限(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vy分量上限(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vy分量下限(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vz分量上限(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vz分量下限(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Z分量下限(m)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -88,12 +136,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9948118533890809E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -108,8 +162,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -392,7 +447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C25C7DC-F204-4A4A-B01F-AE0905CAC745}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
@@ -491,12 +546,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M3" sqref="B3:M3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="3" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.73046875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2">
+        <v>1000</v>
+      </c>
+      <c r="C2">
+        <v>2000</v>
+      </c>
+      <c r="D2">
+        <v>3000</v>
+      </c>
+      <c r="E2">
+        <v>4000</v>
+      </c>
+      <c r="F2">
+        <v>5000</v>
+      </c>
+      <c r="G2">
+        <v>6000</v>
+      </c>
+      <c r="H2">
+        <v>7000</v>
+      </c>
+      <c r="I2">
+        <v>8000</v>
+      </c>
+      <c r="J2">
+        <v>9000</v>
+      </c>
+      <c r="K2">
+        <v>10000</v>
+      </c>
+      <c r="L2">
+        <v>11000</v>
+      </c>
+      <c r="M2">
+        <v>12000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>200</v>
+      </c>
+      <c r="B3">
+        <v>1000</v>
+      </c>
+      <c r="C3">
+        <v>2000</v>
+      </c>
+      <c r="D3">
+        <v>3000</v>
+      </c>
+      <c r="E3">
+        <v>4000</v>
+      </c>
+      <c r="F3">
+        <v>5000</v>
+      </c>
+      <c r="G3">
+        <v>6000</v>
+      </c>
+      <c r="H3">
+        <v>7000</v>
+      </c>
+      <c r="I3">
+        <v>8000</v>
+      </c>
+      <c r="J3">
+        <v>9000</v>
+      </c>
+      <c r="K3">
+        <v>10000</v>
+      </c>
+      <c r="L3">
+        <v>11000</v>
+      </c>
+      <c r="M3">
+        <v>12000</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AK/RadarProcess/resource/参数模板.xlsx
+++ b/AK/RadarProcess/resource/参数模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\AK\AK\RadarProcess\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86325EA7-4498-44E0-A157-235D00F66406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A2CFAC-9DB3-43F8-9443-614A14AD06D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="参数" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>初始经度（°）</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,6 +113,14 @@
   </si>
   <si>
     <t>Z分量下限(m)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度误差(m/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落点误差(m)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C25C7DC-F204-4A4A-B01F-AE0905CAC745}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -537,6 +545,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -548,7 +572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M3" sqref="B3:M3"/>
     </sheetView>
   </sheetViews>
